--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518433.214565413</v>
+        <v>1622612.849016485</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>301.7252086651256</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>132.7955972610821</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,16 +873,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>165.7397695434775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>330.7598727037299</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>76.84181172049824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>23.41940999260974</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>147.7472246220538</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>10.13659100914342</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>5.247097505316078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>165.8124928026223</v>
       </c>
       <c r="U10" t="n">
-        <v>222.8810041512595</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994143047</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>133.1319933510085</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>105.9893107373045</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.24570521548653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>111.551214499872</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>109.040488224226</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.613741235233266</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026952</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.05480806223633</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.4114987159134</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>33.84547402811492</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>32.57570591153918</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>54.32649042089709</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>3.475606507923711</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2291.674678112796</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4319,19 +4321,19 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4349,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2678.274518176918</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>594.3085867387019</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>594.3085867387019</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>444.1919473263662</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X4" t="n">
-        <v>712.4960243697501</v>
+        <v>996.7496307124718</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.70344522622</v>
+        <v>775.9570515689417</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1952.040104645722</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1952.040104645722</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645722</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>946.3334672034053</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1496.53858584249</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1496.53858584249</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.191681214136</v>
+        <v>1496.53858584249</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.774511177175</v>
+        <v>1207.121415805529</v>
       </c>
       <c r="X7" t="n">
-        <v>1348.774511177175</v>
+        <v>979.1318649075118</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.981932033645</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
         <v>1617.939223126803</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4819,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3315.366840791853</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3061.836364065689</v>
       </c>
       <c r="V8" t="n">
-        <v>2750.506830304106</v>
+        <v>2730.773476722119</v>
       </c>
       <c r="W8" t="n">
-        <v>2750.506830304106</v>
+        <v>2378.004821452004</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.041072043026</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1478.290840205551</v>
       </c>
       <c r="U10" t="n">
-        <v>1390.565147990032</v>
+        <v>1189.187973331195</v>
       </c>
       <c r="V10" t="n">
-        <v>1135.880659784145</v>
+        <v>934.5034851253079</v>
       </c>
       <c r="W10" t="n">
-        <v>846.4634897471846</v>
+        <v>645.0863150883473</v>
       </c>
       <c r="X10" t="n">
-        <v>846.4634897471846</v>
+        <v>417.09676419033</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.6709106036544</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>526.565882642405</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>526.565882642405</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5370,10 +5372,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5506,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,13 +5533,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5981,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6379,55 +6381,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556949</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433592</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433592</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>268.7034100454488</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>101.5073107603287</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6953,25 +6955,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3439841395908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7181,7 +7183,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,31 +7192,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171305</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892237</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892237</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>416.6057892068305</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>269.7158417089202</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473703</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,13 +7429,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.547769317909</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900021</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4949469776664</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>295.5818533952732</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>148.6919058973629</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>148.6919058973629</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,13 +7666,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>701.0383482155647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>553.1252546331716</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>406.2353071352612</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>239.0392078501412</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>97.32737669233927</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.038992273368698e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.0840080815008</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>180.5336875992866</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>69.47507150177263</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>132.6809716109906</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>139.4693302300325</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>35.11263957635549</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>131.6786642641539</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>85.96822242532677</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>77.7902298106418</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26316,37 @@
         <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
@@ -26353,7 +26355,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.8428831941</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26436,13 +26438,13 @@
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26451,7 +26453,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603956</v>
+        <v>-995795.3787603959</v>
       </c>
       <c r="C6" t="n">
-        <v>332949.3669671972</v>
+        <v>332949.3669671974</v>
       </c>
       <c r="D6" t="n">
         <v>332949.366967197</v>
       </c>
       <c r="E6" t="n">
-        <v>84503.49005539858</v>
+        <v>84503.49005539814</v>
       </c>
       <c r="F6" t="n">
-        <v>409915.951862754</v>
+        <v>409915.9518627546</v>
       </c>
       <c r="G6" t="n">
+        <v>409915.9518627542</v>
+      </c>
+      <c r="H6" t="n">
+        <v>409915.9518627539</v>
+      </c>
+      <c r="I6" t="n">
+        <v>409915.9518627542</v>
+      </c>
+      <c r="J6" t="n">
+        <v>192384.7494654766</v>
+      </c>
+      <c r="K6" t="n">
         <v>409915.9518627541</v>
       </c>
-      <c r="H6" t="n">
-        <v>409915.9518627541</v>
-      </c>
-      <c r="I6" t="n">
-        <v>409915.951862754</v>
-      </c>
-      <c r="J6" t="n">
-        <v>192384.7494654765</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>409915.9518627542</v>
       </c>
-      <c r="L6" t="n">
-        <v>409915.951862754</v>
-      </c>
       <c r="M6" t="n">
-        <v>324860.9239272421</v>
+        <v>324860.9239272422</v>
       </c>
       <c r="N6" t="n">
         <v>409915.9518627541</v>
@@ -26561,7 +26563,7 @@
         <v>409915.951862754</v>
       </c>
       <c r="P6" t="n">
-        <v>409915.9518627541</v>
+        <v>409915.9518627542</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973564</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973558</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>52.95783295555736</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.63836538548711</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>59.96988584555965</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>23.92316891695305</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>292.8892889579708</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>143.8274111060181</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>71.80172465411542</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>193.7813791304768</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>322.5051609648188</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>53.73645647354689</v>
       </c>
       <c r="U10" t="n">
-        <v>63.3308340543534</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099983</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,13 +32560,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>569.5723171953896</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,31 +32797,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748315</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655539</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,13 +36208,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509451</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237764</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622612.849016485</v>
+        <v>1618600.239002491</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>301.7252086651256</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>107.0120291964077</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.7955972610821</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>196.1623266599242</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>76.84181172049824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>147.7472246220538</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>10.13659100914342</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>165.8124928026223</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>41.33703994143047</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1319933510085</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.3208822291518</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>111.551214499872</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>218.4328070158261</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>109.040488224226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>171.9586765026952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>32.57570591153918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2291.674678112796</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1922.712161172384</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1340.243929312809</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4321,19 +4321,19 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176918</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2678.274518176918</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.3085867387019</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>594.3085867387019</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>444.1919473263662</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484846</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.739181610489</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7496307124718</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9570515689417</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1816.082987429756</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.565186649822</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2710.947195012955</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1496.53858584249</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1496.53858584249</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1496.53858584249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.121415805529</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>979.1318649075118</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.1318649075118</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3315.366840791853</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3061.836364065689</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2730.773476722119</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.004821452004</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2004.539063190924</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,19 +4889,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1478.290840205551</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1189.187973331195</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>934.5034851253079</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>645.0863150883473</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>417.09676419033</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.09676419033</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793926</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>526.565882642405</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>526.565882642405</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>526.565882642405</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>766.1780053015053</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2334.285089135946</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6189,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,28 +6223,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6265,13 +6265,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>813.3497091711303</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.7594328861248</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>390.823249958218</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.4078977163646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.6357307816187</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.284195611858</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.038992273368698e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>104.0840080815008</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>13.30196929556064</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.9259388694759991</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>69.47507150177263</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>7.276848373211067</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242653</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242653</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
@@ -26322,13 +26322,13 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
@@ -26337,25 +26337,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="N2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26432,13 +26432,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26447,13 +26447,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603959</v>
+        <v>-995795.3787603957</v>
       </c>
       <c r="C6" t="n">
-        <v>332949.3669671974</v>
+        <v>332949.366967197</v>
       </c>
       <c r="D6" t="n">
-        <v>332949.366967197</v>
+        <v>332949.3669671969</v>
       </c>
       <c r="E6" t="n">
-        <v>84503.49005539814</v>
+        <v>84156.11080104185</v>
       </c>
       <c r="F6" t="n">
-        <v>409915.9518627546</v>
+        <v>409568.5726083971</v>
       </c>
       <c r="G6" t="n">
-        <v>409915.9518627542</v>
+        <v>409568.5726083968</v>
       </c>
       <c r="H6" t="n">
-        <v>409915.9518627539</v>
+        <v>409568.5726083971</v>
       </c>
       <c r="I6" t="n">
-        <v>409915.9518627542</v>
+        <v>409568.5726083972</v>
       </c>
       <c r="J6" t="n">
-        <v>192384.7494654766</v>
+        <v>192037.3702111196</v>
       </c>
       <c r="K6" t="n">
-        <v>409915.9518627541</v>
+        <v>409568.5726083973</v>
       </c>
       <c r="L6" t="n">
-        <v>409915.9518627542</v>
+        <v>409568.572608397</v>
       </c>
       <c r="M6" t="n">
-        <v>324860.9239272422</v>
+        <v>324513.5446728852</v>
       </c>
       <c r="N6" t="n">
-        <v>409915.9518627541</v>
+        <v>409568.5726083971</v>
       </c>
       <c r="O6" t="n">
-        <v>409915.951862754</v>
+        <v>409568.5726083972</v>
       </c>
       <c r="P6" t="n">
-        <v>409915.9518627542</v>
+        <v>409568.5726083972</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>52.95783295555736</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.9183408758541</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.63836538548711</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>41.51960553688805</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>158.5207149607588</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>292.8892889579708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>71.80172465411542</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>193.7813791304768</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>53.73645647354689</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>369.1789913099983</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>569.5723171953896</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>226.5827468655539</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>426.9760727509451</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1618600.239002491</v>
+        <v>1620360.769305277</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482967</v>
       </c>
       <c r="E2" t="n">
-        <v>107.0120291964077</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.41254713315928</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>196.1623266599242</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>250.3404382620521</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45713216103701</v>
+        <v>90.505191218824</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>79.49219230501893</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>166.3208822291518</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>218.4328070158261</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>27.02919805176115</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>7.613741235232844</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>123.7971820797027</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>12.76515480631733</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>31.26260713376574</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1340.243929312809</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1624.71859813194</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2185.045504370168</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C5" t="n">
-        <v>1816.082987429756</v>
+        <v>1485.020100086187</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1485.020100086187</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2571.64534443429</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4716,25 +4716,25 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,22 +4746,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
         <v>1478.501411349798</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943747</v>
+        <v>1323.570355598078</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
@@ -4813,19 +4813,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>591.726940667266</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>441.6103012549303</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>293.6972076725372</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>146.8072601746268</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>990.6907003535711</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,22 +6247,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6372,16 +6372,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433587</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>268.7034100454483</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>101.5073107603283</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>2126.309465880251</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.624977674364</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922734</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9259388694759991</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>7.276848373211067</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>118.3918499711701</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>132.680971610991</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>67.52345255978867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.81829093850965</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>186.1428431935225</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900670.0829242653</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900670.0829242653</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="14">
@@ -26316,40 +26316,40 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26432,7 +26432,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26447,16 +26447,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603957</v>
+        <v>-995795.3787603956</v>
       </c>
       <c r="C6" t="n">
+        <v>332949.3669671972</v>
+      </c>
+      <c r="D6" t="n">
         <v>332949.366967197</v>
       </c>
-      <c r="D6" t="n">
-        <v>332949.3669671969</v>
-      </c>
       <c r="E6" t="n">
-        <v>84156.11080104185</v>
+        <v>84468.75212996319</v>
       </c>
       <c r="F6" t="n">
-        <v>409568.5726083971</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="G6" t="n">
-        <v>409568.5726083968</v>
+        <v>409881.2139373181</v>
       </c>
       <c r="H6" t="n">
-        <v>409568.5726083971</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="I6" t="n">
-        <v>409568.5726083972</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="J6" t="n">
-        <v>192037.3702111196</v>
+        <v>192350.0115400407</v>
       </c>
       <c r="K6" t="n">
-        <v>409568.5726083973</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="L6" t="n">
-        <v>409568.572608397</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="M6" t="n">
-        <v>324513.5446728852</v>
+        <v>324826.1860018066</v>
       </c>
       <c r="N6" t="n">
-        <v>409568.5726083971</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="O6" t="n">
-        <v>409568.5726083972</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="P6" t="n">
-        <v>409568.5726083972</v>
+        <v>409881.2139373184</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="E2" t="n">
-        <v>274.9183408758541</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>41.51960553688805</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>158.5207149607588</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>131.5899318102097</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112248</v>
+        <v>291.4251788534378</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>86.53361595400929</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911122</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
